--- a/data/management/Management_information_RHH_2016.xlsx
+++ b/data/management/Management_information_RHH_2016.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B086BAE-B8DD-884D-86D8-82A2B732C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="7965" windowWidth="18885" windowHeight="9840"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -265,9 +271,6 @@
     <t>(kg/ha)</t>
   </si>
   <si>
-    <t>AHL</t>
-  </si>
-  <si>
     <t>1l/ha</t>
   </si>
   <si>
@@ -290,13 +293,16 @@
   </si>
   <si>
     <t xml:space="preserve">Aviator + Fandango </t>
+  </si>
+  <si>
+    <t>UAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,10 +522,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,14 +533,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -572,7 +581,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -606,6 +615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -640,9 +650,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -815,35 +826,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -851,7 +862,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -859,25 +870,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -885,7 +896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -893,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,57 +912,57 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -960,7 +971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -969,7 +980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -978,7 +989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -987,7 +998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1014,7 +1025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1023,28 +1034,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1053,14 +1064,14 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1092,7 +1103,7 @@
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1116,7 +1127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1">
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>69</v>
       </c>
@@ -1165,7 +1176,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>55</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1214,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>14</v>
@@ -1227,7 +1238,7 @@
       </c>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
@@ -1254,7 +1265,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1275,7 +1286,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1296,7 +1307,7 @@
       </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1315,7 +1326,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1334,7 +1345,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1351,7 +1362,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1368,7 +1379,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1385,7 +1396,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="36" customHeight="1">
+    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
@@ -1420,7 +1431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>14</v>
@@ -1447,7 +1458,7 @@
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1461,7 +1472,7 @@
         <v>70</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>15</v>
@@ -1474,7 +1485,7 @@
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1488,7 +1499,7 @@
         <v>60</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>16</v>
@@ -1501,7 +1512,7 @@
       </c>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1522,7 +1533,7 @@
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1541,7 +1552,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1560,7 +1571,7 @@
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1577,7 +1588,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1592,15 +1603,15 @@
         <v>42444</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1615,15 +1626,15 @@
         <v>42480</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
@@ -1658,7 +1669,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>14</v>
@@ -1685,7 +1696,7 @@
       </c>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>70</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
@@ -1712,7 +1723,7 @@
       </c>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>16</v>
@@ -1739,7 +1750,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1760,7 +1771,7 @@
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1775,17 +1786,17 @@
         <v>42473</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1800,17 +1811,17 @@
         <v>42509</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1825,15 +1836,15 @@
         <v>42521</v>
       </c>
       <c r="H72" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1848,15 +1859,15 @@
         <v>42444</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -1871,15 +1882,15 @@
         <v>42480</v>
       </c>
       <c r="H74" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>55</v>
       </c>
@@ -1914,7 +1925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>72</v>
       </c>
@@ -1935,7 +1946,7 @@
       </c>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>72</v>
       </c>
@@ -1956,7 +1967,7 @@
       </c>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
         <v>72</v>
       </c>
@@ -1977,7 +1988,7 @@
       </c>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>72</v>
       </c>
@@ -1998,7 +2009,7 @@
       </c>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>72</v>
       </c>
@@ -2017,7 +2028,7 @@
       </c>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>72</v>
       </c>
@@ -2036,7 +2047,7 @@
       </c>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>72</v>
       </c>
@@ -2053,7 +2064,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>72</v>
       </c>
@@ -2070,7 +2081,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>72</v>
       </c>

--- a/data/management/Management_information_RHH_2016.xlsx
+++ b/data/management/Management_information_RHH_2016.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\Tien-Che_1\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B086BAE-B8DD-884D-86D8-82A2B732C107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="21105"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -236,9 +235,6 @@
   </si>
   <si>
     <t>Dr. Benjamin Wittkop</t>
-  </si>
-  <si>
-    <t>high nitrogen, with fungicide (HN_WF_Trockenstress)</t>
   </si>
   <si>
     <t>Rauischholzhausen</t>
@@ -301,8 +297,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,21 +348,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +480,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
@@ -514,12 +495,6 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -541,9 +516,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -581,9 +556,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,7 +593,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -653,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,35 +801,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="A76" sqref="A76:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -862,41 +837,41 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -904,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,150 +887,150 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,14 +1039,14 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -1083,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1095,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1103,7 +1078,7 @@
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1112,10 +1087,10 @@
         <v>15.67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1124,10 +1099,10 @@
         <v>10.91</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -1136,10 +1111,10 @@
         <v>12.72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -1148,20 +1123,20 @@
         <v>39.31</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>69</v>
       </c>
@@ -1176,7 +1151,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>55</v>
       </c>
@@ -1211,7 +1186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1200,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>14</v>
@@ -1238,7 +1213,7 @@
       </c>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
@@ -1265,7 +1240,7 @@
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1286,7 +1261,7 @@
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -1307,7 +1282,7 @@
       </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1301,7 @@
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1345,7 +1320,7 @@
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1362,7 +1337,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1379,7 +1354,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1396,7 +1371,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>55</v>
       </c>
@@ -1431,7 +1406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1445,7 +1420,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>14</v>
@@ -1458,7 +1433,7 @@
       </c>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1472,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>15</v>
@@ -1485,7 +1460,7 @@
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1474,7 @@
         <v>60</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>16</v>
@@ -1512,7 +1487,7 @@
       </c>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1533,7 +1508,7 @@
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1552,7 +1527,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1571,7 +1546,7 @@
       </c>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1588,7 +1563,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1603,15 +1578,15 @@
         <v>42444</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1626,15 +1601,15 @@
         <v>42480</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>55</v>
       </c>
@@ -1669,7 +1644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1683,7 +1658,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>14</v>
@@ -1696,7 +1671,7 @@
       </c>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -1710,7 +1685,7 @@
         <v>70</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
@@ -1723,7 +1698,7 @@
       </c>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1737,7 +1712,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>16</v>
@@ -1750,7 +1725,7 @@
       </c>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1771,7 +1746,7 @@
       </c>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1786,17 +1761,17 @@
         <v>42473</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1811,17 +1786,17 @@
         <v>42509</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1836,15 +1811,15 @@
         <v>42521</v>
       </c>
       <c r="H72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1859,15 +1834,15 @@
         <v>42444</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -1882,221 +1857,13 @@
         <v>42480</v>
       </c>
       <c r="H74" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K77" s="19"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" s="19"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K79" s="19"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K80" s="19"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K81" s="19"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K82" s="19"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
